--- a/check_mu_s_assumptions.xlsx
+++ b/check_mu_s_assumptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsh1603970/GitHub/serosolver_norovirus_simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960410CB-333C-F245-AE79-3209F800C047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3633B9C8-E008-1E48-BEDA-C0675F12BADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="15960" windowHeight="14520" xr2:uid="{9F566F1D-4F39-1441-9173-B2EEF30F80F9}"/>
+    <workbookView xWindow="5580" yWindow="5820" windowWidth="15960" windowHeight="14320" xr2:uid="{9F566F1D-4F39-1441-9173-B2EEF30F80F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
